--- a/server/assets/storage.xlsx
+++ b/server/assets/storage.xlsx
@@ -408,22 +408,22 @@
         <v>370203</v>
       </c>
       <c r="B2" t="str">
-        <v>山东省青岛市市北区镇江路街道镇江支路镇江路军官住宅小区</v>
+        <v>山东省青岛市市北区海伦路街道人民路431人民路383号大院</v>
       </c>
       <c r="C2">
-        <v>120.370966</v>
+        <v>120.363413</v>
       </c>
       <c r="D2">
-        <v>36.082565</v>
+        <v>36.116686</v>
       </c>
       <c r="E2">
         <v>5000</v>
       </c>
       <c r="F2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G2">
-        <v>1843</v>
+        <v>1985</v>
       </c>
     </row>
   </sheetData>
